--- a/Bellevue University/Courses/DSC640/DSC640_Grades.xlsx
+++ b/Bellevue University/Courses/DSC640/DSC640_Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Safarie1103\Bellevue University\Courses\DSC640\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81DECC3-BCD7-4D61-9E03-8F544A700C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE07E2-F041-4C97-885A-AB9BDC3C93D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="2415" windowWidth="21600" windowHeight="11295" xr2:uid="{8DBFA4B6-8248-4EC2-B5A9-B40D38B2DDF7}"/>
+    <workbookView xWindow="31515" yWindow="1575" windowWidth="21600" windowHeight="11295" xr2:uid="{8DBFA4B6-8248-4EC2-B5A9-B40D38B2DDF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,14 +603,14 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>96</v>
+        <v>86.64</v>
       </c>
       <c r="B15" s="2">
         <v>96</v>
       </c>
       <c r="C15">
         <f>(SUM(A2:A15)/SUM(B2:B15))*100</f>
-        <v>98.195121951219505</v>
+        <v>97.243902439024382</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
       </c>
       <c r="C16">
         <f>(SUM(A2:A16)/SUM(B2:B16))*100</f>
-        <v>98.282398452611218</v>
+        <v>97.377176015473893</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -634,25 +634,25 @@
       </c>
       <c r="C17">
         <f>(SUM(A2:A17)/SUM(B2:B17))*100</f>
-        <v>98.391304347826093</v>
+        <v>97.543478260869577</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>60</v>
+        <v>88.32</v>
       </c>
       <c r="B18" s="2">
         <v>96</v>
       </c>
       <c r="C18">
         <f>(SUM(A2:A18)/SUM(B2:B18))*100</f>
-        <v>95.52000000000001</v>
+        <v>97.100000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>SUM(A2:A18)</f>
-        <v>1146.24</v>
+        <v>1165.2</v>
       </c>
       <c r="B19" s="2">
         <f>SUM(B2:B18)</f>
@@ -660,13 +660,13 @@
       </c>
       <c r="C19">
         <f>(A19/B19)*100</f>
-        <v>95.52000000000001</v>
+        <v>97.100000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>(SUM(A2:A18)/SUM(B2:B18))*100</f>
-        <v>95.52000000000001</v>
+        <v>97.100000000000009</v>
       </c>
       <c r="B20" s="1"/>
     </row>
